--- a/data/trans_dic/P20_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20_5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le preocupa el nivel de estrés de sus hijos</t>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>61,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,13%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>68,04%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,64%</t>
+          <t>65,35%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,27; 69,94</t>
+          <t>29,01; 70,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,99; 74,47</t>
+          <t>44,22; 83,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,16; 81,15</t>
+          <t>54,2; 80,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,74; 73,83</t>
+          <t>55,3; 80,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,42; 74,43</t>
+          <t>46,87; 72,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,09; 70,71</t>
+          <t>54,54; 76,79</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>58,95%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,38%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>39,39%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,87; 66,96</t>
+          <t>24,13; 39,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,13; 63,42</t>
+          <t>27,44; 47,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,76; 70,59</t>
+          <t>42,48; 56,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,35; 59,29</t>
+          <t>35,38; 49,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,81; 66,53</t>
+          <t>35,67; 46,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,63; 58,42</t>
+          <t>34,11; 46,41</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>59,88%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65,05%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,85%</t>
+          <t>34,77%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,04; 68,01</t>
+          <t>27,73; 44,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,4; 63,47</t>
+          <t>23,18; 38,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,49; 72,67</t>
+          <t>32,93; 48,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,33; 65,95</t>
+          <t>31,53; 45,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,89; 67,98</t>
+          <t>31,89; 44,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,72; 62,77</t>
+          <t>29,15; 40,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,18%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,27; 64,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,15; 61,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,21; 71,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,55; 61,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,0; 66,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,53; 59,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36,57%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37,6%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47,95%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44,16%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>42,66%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30,83; 42,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31,43; 46,51</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>43,01; 52,83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39,53; 49,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>38,82; 46,62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37,15; 45,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54584</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>77560</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>81728</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>94531</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>136312</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>172090</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29980; 72980</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>56016; 106236</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>63848; 94578</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>75572; 110534</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>103661; 160366</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>143608; 202210</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>117642</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>155968</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>193528</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>196169</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>311170</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>352137</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>88323; 146141</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>117829; 203268</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>165937; 221504</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>164322; 231033</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>269927; 350281</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>304968; 414920</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>103943</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>100790</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>141016</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>163934</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>244959</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>264725</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>79289; 127308</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>77163; 128754</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>118406; 174038</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>135058; 196598</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>205855; 284274</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>221924; 306762</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>276169</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>334317</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>416272</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>454634</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>692441</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>788952</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>232885; 319899</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>279442; 413479</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>373338; 458572</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>406967; 504823</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>630247; 756750</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>712721; 870334</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>